--- a/output_analysis/START_4_SEC_4.0_ENERGY_1.5_EV-FACTOR_16_EV_10_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_4_SEC_4.0_ENERGY_1.5_EV-FACTOR_16_EV_10_FLEX_300_TPS.txt.xlsx
@@ -434,435 +434,440 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11 16 25 69</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3 11 77</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
       </c>
       <c r="D2" t="n">
+        <v>81</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6 10 19 98 251</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>112</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>12 14 52 110 281</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>88</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>13 42</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>87</v>
+      </c>
+      <c r="E5" t="n">
         <v>98</v>
       </c>
-      <c r="E2" t="n">
-        <v>82</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8 25 27 29</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>104</v>
+      </c>
+      <c r="E6" t="n">
+        <v>96</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21 41 44 60 122 172</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>141</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>58 76 83 290</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>62 75 104 233</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>116</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94</v>
+      </c>
+      <c r="F9" t="n">
+        <v>28</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15 33 91 245 289</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97</v>
+      </c>
+      <c r="E10" t="n">
         <v>98</v>
       </c>
-      <c r="G2" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>17 23 28 50 70</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>96</v>
-      </c>
-      <c r="E3" t="n">
-        <v>124</v>
-      </c>
-      <c r="F3" t="n">
-        <v>96</v>
-      </c>
-      <c r="G3" t="n">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>31 43 91</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>82</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>35 36 38 100 202 231</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>109</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2 76</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>96</v>
-      </c>
-      <c r="E6" t="n">
-        <v>62</v>
-      </c>
-      <c r="F6" t="n">
-        <v>96</v>
-      </c>
-      <c r="G6" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9 41 53 158</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="F10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>26 38 266</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>93</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>39 70 82</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>84</v>
+      </c>
+      <c r="E12" t="n">
+        <v>92</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>40 65 136</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>68</v>
+      </c>
+      <c r="E13" t="n">
+        <v>98</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2 9 16 24 35 56 71</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>141</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>35</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4 5 23 85 120</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>119</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>17 18 99</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>106</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20 31 134</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>105</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>18 87</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>61</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20 22 56 83</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>92</v>
-      </c>
-      <c r="E9" t="n">
-        <v>102</v>
-      </c>
-      <c r="F9" t="n">
-        <v>92</v>
-      </c>
-      <c r="G9" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4 5 6 15 52</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="n">
-        <v>118</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>7 8</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" t="n">
-        <v>78</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>12 13 14 119 226 297</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" t="n">
-        <v>105</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" t="n">
-        <v>52</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3 27</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" t="n">
-        <v>94</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10 19 21 46 81</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" t="n">
-        <v>88</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>26 30 33 246</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" t="n">
-        <v>121</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>29 60 89 223</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" t="n">
-        <v>94</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
       <c r="G17" t="n">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
